--- a/inventario/app/static/templates/plantilla_inventario.xlsx
+++ b/inventario/app/static/templates/plantilla_inventario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\the_tata\Desktop\Inventario_prueba\Inventario\inventario\app\static\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF07DB9C-DCB5-4FA9-A684-CEED8F8059AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943CE556-22F0-4FB1-8C02-2C39FB434DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E3482FD-5D2B-470D-83D9-2034E2518A82}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t xml:space="preserve"> Ferreteria Del PinoMax</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Fecha impresión:</t>
   </si>
@@ -40,6 +37,24 @@
   </si>
   <si>
     <t>Precio</t>
+  </si>
+  <si>
+    <t>Nombre de la ferreteria:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direccion: </t>
+  </si>
+  <si>
+    <t>Fono:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datos de la emrpesa: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inventario Solucenter</t>
   </si>
 </sst>
 </file>
@@ -76,7 +91,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,8 +116,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -232,11 +253,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -259,34 +329,49 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,17 +686,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAC29BE-4D89-454F-A4A4-49A45FD0A11F}">
-  <dimension ref="B3:M34"/>
+  <dimension ref="B3:M39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" customWidth="1"/>
     <col min="5" max="5" width="18.21875" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="31.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
     <col min="12" max="12" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -624,66 +715,66 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J11" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="J11" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" s="17"/>
+      <c r="K11" s="20"/>
       <c r="L11" s="3"/>
       <c r="M11" s="1"/>
     </row>
@@ -694,151 +785,205 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="10" t="s">
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="9"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="9"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="J35" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="14"/>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C36" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="28"/>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C37" s="4"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C38" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>3</v>
+      <c r="D38" s="22"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="24" t="s">
+        <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="9"/>
-      <c r="G24" s="21"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="9"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" s="23"/>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C39" s="30"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="C4:J8"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
+  <mergeCells count="28">
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J34:K34"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
@@ -851,8 +996,21 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C4:J8"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/inventario/app/static/templates/plantilla_inventario.xlsx
+++ b/inventario/app/static/templates/plantilla_inventario.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\the_tata\Desktop\Inventario_prueba\Inventario\inventario\app\static\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\the_tata\Desktop\Inventario\inventario\app\static\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943CE556-22F0-4FB1-8C02-2C39FB434DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F291827-7380-43A9-89AC-996697C58A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E3482FD-5D2B-470D-83D9-2034E2518A82}"/>
   </bookViews>
@@ -54,7 +54,7 @@
     <t xml:space="preserve">Datos de la emrpesa: </t>
   </si>
   <si>
-    <t xml:space="preserve"> Inventario Solucenter</t>
+    <t xml:space="preserve"> Inventario Solucenter, Productos</t>
   </si>
 </sst>
 </file>
@@ -306,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -330,48 +330,47 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,7 +687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAC29BE-4D89-454F-A4A4-49A45FD0A11F}">
   <dimension ref="B3:M39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -717,64 +716,64 @@
     </row>
     <row r="4" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="20"/>
+      <c r="K11" s="29"/>
       <c r="L11" s="3"/>
       <c r="M11" s="1"/>
     </row>
@@ -785,10 +784,10 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="17"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="10" t="s">
         <v>3</v>
       </c>
@@ -798,203 +797,184 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="7"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="7"/>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="7"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="7"/>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="7"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="7"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="8"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="9"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="9"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="9"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="9"/>
       <c r="G24" s="12"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="9"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="9"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="9"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="9"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
       <c r="E30" s="9"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="9"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
       <c r="E32" s="9"/>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="9"/>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
       <c r="E34" s="9"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="J35" s="14" t="s">
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="J35" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K35" s="14"/>
+      <c r="K35" s="23"/>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="28"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="17"/>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C37" s="4"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="24" t="s">
+      <c r="D38" s="21"/>
+      <c r="E38" s="13"/>
+      <c r="G38" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="23"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="24" t="s">
+      <c r="H38" s="13"/>
+      <c r="J38" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="23"/>
+      <c r="K38" s="13"/>
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C39" s="30"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="32"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C4:J8"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
@@ -1003,11 +983,21 @@
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C4:J8"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
